--- a/results/Homeopathy_excluded/mod2.galtan.eff.MN.xlsx
+++ b/results/Homeopathy_excluded/mod2.galtan.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0838210585534536</v>
+        <v>0.0838221881962024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0356893273280923</v>
+        <v>0.0356893657940347</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0138712623579315</v>
+        <v>0.0138723166088187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.153770854748976</v>
+        <v>0.153772059783586</v>
       </c>
       <c r="G2" t="n">
-        <v>2.34863094456463</v>
+        <v>2.34866006529634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0188425725264186</v>
+        <v>0.0188410990991768</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.111195722169155</v>
+        <v>-0.111198974501138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0870149931174866</v>
+        <v>0.0870152760567562</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.28174197479443</v>
+        <v>-0.281745781677191</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0593505304561189</v>
+        <v>0.0593478326749143</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.27789152403909</v>
+        <v>-1.27792474540457</v>
       </c>
       <c r="H3" t="n">
-        <v>0.201287677070828</v>
+        <v>0.201275961986684</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.017573496100446</v>
+        <v>-0.0175721334729537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0374345185655279</v>
+        <v>0.0374345816384935</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0909438042674766</v>
+        <v>-0.0909425652607253</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0557968120665846</v>
+        <v>0.0557982983148178</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.469446296462559</v>
+        <v>-0.469409105266574</v>
       </c>
       <c r="H4" t="n">
-        <v>0.638750662876644</v>
+        <v>0.638777241294572</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0449481597161479</v>
+        <v>0.0449489197778897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0315555388266542</v>
+        <v>0.0315556140275198</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0168995598968497</v>
+        <v>-0.016898947226096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.106795879329145</v>
+        <v>0.106796786781876</v>
       </c>
       <c r="G5" t="n">
-        <v>1.42441426727219</v>
+        <v>1.42443495913879</v>
       </c>
       <c r="H5" t="n">
-        <v>0.154326586580611</v>
+        <v>0.15432060038185</v>
       </c>
     </row>
   </sheetData>
